--- a/src/main/resources/template/orderList2.xlsx
+++ b/src/main/resources/template/orderList2.xlsx
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,7 +172,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,13 +196,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,17 +219,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,16 +241,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,45 +294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +605,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -620,30 +638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -655,26 +649,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,8 +671,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,148 +707,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="A22" sqref="A22:W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8"/>
@@ -1488,10 +1488,10 @@
       <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1535,8 +1535,8 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1560,8 +1560,8 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1585,8 +1585,8 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1610,8 +1610,8 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1635,162 +1635,162 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9" t="s">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="10"/>
@@ -1989,12 +1989,12 @@
     <mergeCell ref="T10:U14"/>
     <mergeCell ref="V10:W14"/>
     <mergeCell ref="C10:E14"/>
-    <mergeCell ref="A10:B14"/>
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="A15:S17"/>
     <mergeCell ref="T15:U17"/>
     <mergeCell ref="V15:W17"/>
     <mergeCell ref="A18:W20"/>
+    <mergeCell ref="A10:B14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/template/orderList2.xlsx
+++ b/src/main/resources/template/orderList2.xlsx
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -164,7 +164,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +189,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,32 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +240,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -241,30 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,9 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,14 +286,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,186 +322,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -561,9 +561,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -571,6 +569,15 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -587,12 +594,42 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,7 +638,18 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,6 +658,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,16 +701,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -670,30 +733,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -707,152 +746,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,19 +919,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,7 +1268,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:W22"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8"/>
@@ -1346,16 +1397,16 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="17"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
@@ -1404,16 +1455,16 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="17"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
@@ -1465,11 +1516,11 @@
     <row r="9" spans="1:23">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1484,15 +1535,15 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="7"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="17"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2"/>
@@ -1535,9 +1586,9 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1554,15 +1605,15 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="13"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="7"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1579,15 +1630,15 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="13"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="7"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1604,59 +1655,59 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="13"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="7"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="7"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="17"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="11" t="s">
         <v>32</v>
       </c>
       <c r="U15" s="2"/>
@@ -1666,77 +1717,77 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1793,164 +1844,164 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -1990,11 +2041,11 @@
     <mergeCell ref="V10:W14"/>
     <mergeCell ref="C10:E14"/>
     <mergeCell ref="A1:W3"/>
-    <mergeCell ref="A15:S17"/>
     <mergeCell ref="T15:U17"/>
     <mergeCell ref="V15:W17"/>
     <mergeCell ref="A18:W20"/>
     <mergeCell ref="A10:B14"/>
+    <mergeCell ref="A15:S17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/template/orderList2.xlsx
+++ b/src/main/resources/template/orderList2.xlsx
@@ -118,7 +118,23 @@
     <t>{{sumPrice}}</t>
   </si>
   <si>
-    <t>注意事项</t>
+    <r>
+      <t xml:space="preserve">                                                                                                               注意事项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                        1.  以上报价不含税运，若需开增值税普通发票需在此报价上加1%，开增值税专用发票需在此报价上加13%；运费以物流公司实际报价为准；
+                                                        2.  产品图片为效果图，仅供参考，具体以实物为准；
+                                                        3. 定制产品一经确认下单，不接受退货；
+                                                        4. 报价仅限当日有效；</t>
+    </r>
   </si>
   <si>
     <t>深圳市全采供应链有限公司</t>
@@ -141,12 +157,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,22 +179,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,15 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,9 +217,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +255,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,29 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -279,29 +325,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,127 +346,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,56 +524,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -620,19 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -647,32 +658,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +669,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,21 +699,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +720,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -741,157 +737,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,20 +933,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8"/>
@@ -1406,7 +1414,7 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="16"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
@@ -1464,7 +1472,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="16"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
@@ -1518,7 +1526,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="2"/>
@@ -1536,14 +1544,14 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="17"/>
+      <c r="W9" s="16"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2"/>
@@ -1586,9 +1594,9 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1611,9 +1619,9 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1636,9 +1644,9 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1661,53 +1669,53 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
       <c r="T14" s="8"/>
-      <c r="U14" s="17"/>
+      <c r="U14" s="16"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="11" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="U15" s="2"/>
@@ -1717,300 +1725,400 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="11"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="10"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="11"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="10"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="16" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="16" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="16" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="16" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A21:W21"/>
-    <mergeCell ref="A22:W22"/>
-    <mergeCell ref="A23:W23"/>
-    <mergeCell ref="A24:W24"/>
     <mergeCell ref="A25:W25"/>
     <mergeCell ref="A26:W26"/>
+    <mergeCell ref="A27:W27"/>
+    <mergeCell ref="A28:W28"/>
+    <mergeCell ref="A29:W29"/>
+    <mergeCell ref="A30:W30"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="A8:B9"/>
@@ -2043,9 +2151,9 @@
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="T15:U17"/>
     <mergeCell ref="V15:W17"/>
-    <mergeCell ref="A18:W20"/>
     <mergeCell ref="A10:B14"/>
     <mergeCell ref="A15:S17"/>
+    <mergeCell ref="A18:W24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/template/orderList2.xlsx
+++ b/src/main/resources/template/orderList2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>报价单</t>
   </si>
@@ -43,9 +43,6 @@
     <t>{{contact}}</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
@@ -76,10 +73,7 @@
     <t>金额</t>
   </si>
   <si>
-    <t>{{$fe:list t.id</t>
-  </si>
-  <si>
-    <t>t.material</t>
+    <t>{{$fe:list t.material</t>
   </si>
   <si>
     <t>t.brand</t>
@@ -119,6 +113,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">                                                                                                               注意事项</t>
     </r>
     <r>
@@ -157,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -188,6 +190,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -202,13 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -217,39 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,17 +236,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,8 +251,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,17 +313,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,14 +332,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,19 +342,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,25 +426,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,31 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,97 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,39 +563,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -631,6 +604,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -652,6 +636,24 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -688,17 +690,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,26 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -752,99 +730,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,31 +855,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,19 +888,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,23 +935,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,7 +1278,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="A18" sqref="A18:W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8"/>
@@ -1381,15 +1383,15 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="2"/>
@@ -1405,16 +1407,16 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="16"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
@@ -1439,15 +1441,15 @@
       <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="2"/>
@@ -1463,72 +1465,66 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="3" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="3:23">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="3:23">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1543,60 +1539,54 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="16"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
+      <c r="V9" s="5"/>
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="3:23">
+      <c r="C10" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="U10" s="8"/>
       <c r="V10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
+    <row r="11" spans="3:23">
+      <c r="C11" s="7"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1613,15 +1603,13 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="3:23">
+      <c r="C12" s="7"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1638,15 +1626,13 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="7"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
+    <row r="13" spans="3:23">
+      <c r="C13" s="7"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1663,39 +1649,37 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="7"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="16"/>
+    <row r="14" spans="3:23">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="14"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1715,12 +1699,12 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="10" t="s">
-        <v>32</v>
+      <c r="T15" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W15" s="2"/>
     </row>
@@ -1744,7 +1728,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="10"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -1769,350 +1753,350 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="10"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="15" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="15" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="15" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="39">
     <mergeCell ref="A25:W25"/>
     <mergeCell ref="A26:W26"/>
     <mergeCell ref="A27:W27"/>
@@ -2121,7 +2105,6 @@
     <mergeCell ref="A30:W30"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
     <mergeCell ref="C8:E9"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H8:I9"/>
@@ -2151,7 +2134,6 @@
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="T15:U17"/>
     <mergeCell ref="V15:W17"/>
-    <mergeCell ref="A10:B14"/>
     <mergeCell ref="A15:S17"/>
     <mergeCell ref="A18:W24"/>
   </mergeCells>

--- a/src/main/resources/template/orderList2.xlsx
+++ b/src/main/resources/template/orderList2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>报价单</t>
   </si>
@@ -43,6 +43,9 @@
     <t>{{contact}}</t>
   </si>
   <si>
+    <t>序号</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -73,7 +76,10 @@
     <t>金额</t>
   </si>
   <si>
-    <t>{{$fe:list t.material</t>
+    <t>{{$fe:list t.id</t>
+  </si>
+  <si>
+    <t>t.material</t>
   </si>
   <si>
     <t>t.brand</t>
@@ -101,9 +107,6 @@
   </si>
   <si>
     <t>t.price }}</t>
-  </si>
-  <si>
-    <t>合计</t>
   </si>
   <si>
     <t>{{sumCount}}</t>
@@ -159,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -190,76 +193,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -276,8 +215,70 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,8 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,23 +306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +320,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -342,6 +345,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,7 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,157 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,20 +594,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -615,9 +607,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -652,8 +642,39 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -666,10 +687,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -690,17 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -715,196 +757,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +917,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,26 +932,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1278,7 +1290,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:W24"/>
+      <selection activeCell="A15" sqref="A15:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8"/>
@@ -1380,18 +1392,18 @@
         <v>3</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="8"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="2"/>
@@ -1407,16 +1419,16 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="14"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
@@ -1438,18 +1450,18 @@
         <v>7</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="8"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="14"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="2"/>
@@ -1465,66 +1477,72 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="14"/>
-    </row>
-    <row r="8" spans="3:23">
-      <c r="C8" s="3" t="s">
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="15"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U8" s="2"/>
-      <c r="V8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="3:23">
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="V8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1539,56 +1557,62 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="14"/>
-    </row>
-    <row r="10" spans="3:23">
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S10" s="2"/>
-      <c r="T10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="8"/>
+      <c r="T10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="14"/>
       <c r="V10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="3:23">
-      <c r="C11" s="7"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="11" spans="1:23">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1603,15 +1627,17 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="16"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="19"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="3:23">
-      <c r="C12" s="7"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="12" spans="1:23">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1626,15 +1652,17 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="16"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="19"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="3:23">
-      <c r="C13" s="7"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+    <row r="13" spans="1:23">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1649,118 +1677,118 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="16"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="3:23">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="14"/>
+    <row r="14" spans="1:23">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="7" t="s">
-        <v>30</v>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1962,7 +1990,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1989,7 +2017,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2016,7 +2044,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2043,7 +2071,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2070,7 +2098,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2096,7 +2124,7 @@
       <c r="W30" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="41">
     <mergeCell ref="A25:W25"/>
     <mergeCell ref="A26:W26"/>
     <mergeCell ref="A27:W27"/>
@@ -2130,12 +2158,14 @@
     <mergeCell ref="R10:S14"/>
     <mergeCell ref="T10:U14"/>
     <mergeCell ref="V10:W14"/>
-    <mergeCell ref="C10:E14"/>
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="T15:U17"/>
     <mergeCell ref="V15:W17"/>
+    <mergeCell ref="A18:W24"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="C10:E14"/>
     <mergeCell ref="A15:S17"/>
-    <mergeCell ref="A18:W24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/template/orderList2.xlsx
+++ b/src/main/resources/template/orderList2.xlsx
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -200,25 +200,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,16 +221,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,9 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,44 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,8 +299,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,79 +345,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,103 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,15 +673,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -698,6 +689,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,21 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -762,152 +762,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,9 +932,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,18 +942,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1290,7 +1281,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:S17"/>
+      <selection activeCell="C10" sqref="C10:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8"/>
@@ -1403,7 +1394,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="14"/>
+      <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="2"/>
@@ -1428,7 +1419,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="15"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
@@ -1461,7 +1452,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="14"/>
+      <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="2"/>
@@ -1486,7 +1477,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
@@ -1497,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1533,14 +1524,14 @@
       <c r="V8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="14"/>
+      <c r="W8" s="12"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="2"/>
@@ -1558,13 +1549,13 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="15"/>
+      <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1601,15 +1592,15 @@
       <c r="T10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="14"/>
+      <c r="U10" s="12"/>
       <c r="V10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1627,14 +1618,14 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="19"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1652,14 +1643,14 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="19"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1677,57 +1668,57 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="19"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="15"/>
+      <c r="U14" s="13"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="18" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="15" t="s">
         <v>31</v>
       </c>
       <c r="U15" s="2"/>
@@ -1737,391 +1728,391 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="18"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="15"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="18"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="15"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="41">
